--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H2">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I2">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J2">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N2">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q2">
-        <v>0.6880671742559999</v>
+        <v>0.856911342632</v>
       </c>
       <c r="R2">
-        <v>6.192604568304</v>
+        <v>7.712202083688</v>
       </c>
       <c r="S2">
-        <v>5.359477495085339E-05</v>
+        <v>2.994430840633331E-05</v>
       </c>
       <c r="T2">
-        <v>5.359477495085339E-05</v>
+        <v>2.994430840633331E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H3">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I3">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J3">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q3">
-        <v>3.690668229049999</v>
+        <v>5.08157325605</v>
       </c>
       <c r="R3">
-        <v>33.21601406145</v>
+        <v>45.73415930445</v>
       </c>
       <c r="S3">
-        <v>0.0002874727069607398</v>
+        <v>0.0001775728587057382</v>
       </c>
       <c r="T3">
-        <v>0.0002874727069607398</v>
+        <v>0.0001775728587057382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H4">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I4">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J4">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N4">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O4">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P4">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q4">
-        <v>0.01125817491333333</v>
+        <v>0.02770382934233333</v>
       </c>
       <c r="R4">
-        <v>0.10132357422</v>
+        <v>0.249334464081</v>
       </c>
       <c r="S4">
-        <v>8.769192506383863E-07</v>
+        <v>9.680954943544431E-07</v>
       </c>
       <c r="T4">
-        <v>8.76919250638386E-07</v>
+        <v>9.680954943544429E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H5">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I5">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J5">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N5">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q5">
-        <v>0.3610408694676667</v>
+        <v>0.7538373183726667</v>
       </c>
       <c r="R5">
-        <v>3.249367825209</v>
+        <v>6.784535865354</v>
       </c>
       <c r="S5">
-        <v>2.812211492010629E-05</v>
+        <v>2.634244177492282E-05</v>
       </c>
       <c r="T5">
-        <v>2.812211492010629E-05</v>
+        <v>2.634244177492282E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H6">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I6">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J6">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N6">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q6">
-        <v>0.02248333692</v>
+        <v>0.042338262877</v>
       </c>
       <c r="R6">
-        <v>0.20235003228</v>
+        <v>0.381044365893</v>
       </c>
       <c r="S6">
-        <v>1.751267067310043E-06</v>
+        <v>1.479487944555954E-06</v>
       </c>
       <c r="T6">
-        <v>1.751267067310043E-06</v>
+        <v>1.479487944555954E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H7">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I7">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J7">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N7">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q7">
-        <v>0.00873086926433333</v>
+        <v>0.02206866014533333</v>
       </c>
       <c r="R7">
-        <v>0.07857782337899999</v>
+        <v>0.198617941308</v>
       </c>
       <c r="S7">
-        <v>6.800629224221234E-07</v>
+        <v>7.711775216753213E-07</v>
       </c>
       <c r="T7">
-        <v>6.800629224221234E-07</v>
+        <v>7.711775216753212E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H8">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I8">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J8">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N8">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O8">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P8">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q8">
-        <v>121.605387022448</v>
+        <v>148.585518265432</v>
       </c>
       <c r="R8">
-        <v>1094.448483202032</v>
+        <v>1337.269664388888</v>
       </c>
       <c r="S8">
-        <v>0.009472059697262468</v>
+        <v>0.005192241440040911</v>
       </c>
       <c r="T8">
-        <v>0.009472059697262468</v>
+        <v>0.005192241440040911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H9">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I9">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J9">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>286.19445</v>
       </c>
       <c r="O9">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P9">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q9">
-        <v>652.2693643253167</v>
+        <v>881.1275546135499</v>
       </c>
       <c r="R9">
-        <v>5870.424278927851</v>
+        <v>7930.147991521951</v>
       </c>
       <c r="S9">
-        <v>0.0508064199199032</v>
+        <v>0.03079053097794896</v>
       </c>
       <c r="T9">
-        <v>0.0508064199199032</v>
+        <v>0.03079053097794897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H10">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I10">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J10">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N10">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O10">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P10">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q10">
-        <v>1.989710843251111</v>
+        <v>4.803749975025666</v>
       </c>
       <c r="R10">
-        <v>17.90739758926</v>
+        <v>43.233749775231</v>
       </c>
       <c r="S10">
-        <v>0.0001549821134493485</v>
+        <v>0.0001678644727904583</v>
       </c>
       <c r="T10">
-        <v>0.0001549821134493485</v>
+        <v>0.0001678644727904583</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H11">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I11">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J11">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N11">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O11">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P11">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q11">
-        <v>63.80847147665524</v>
+        <v>130.7128323149393</v>
       </c>
       <c r="R11">
-        <v>574.276243289897</v>
+        <v>1176.415490834454</v>
       </c>
       <c r="S11">
-        <v>0.004970155235856267</v>
+        <v>0.00456768999168772</v>
       </c>
       <c r="T11">
-        <v>0.004970155235856267</v>
+        <v>0.00456768999168772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H12">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I12">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J12">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N12">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O12">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P12">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q12">
-        <v>3.97358715836</v>
+        <v>7.341311077426999</v>
       </c>
       <c r="R12">
-        <v>35.76228442524</v>
+        <v>66.071799696843</v>
       </c>
       <c r="S12">
-        <v>0.000309509765133296</v>
+        <v>0.0002565381878761187</v>
       </c>
       <c r="T12">
-        <v>0.000309509765133296</v>
+        <v>0.0002565381878761187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H13">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I13">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J13">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N13">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O13">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P13">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q13">
-        <v>1.543048085500778</v>
+        <v>3.826630763278666</v>
       </c>
       <c r="R13">
-        <v>13.887432769507</v>
+        <v>34.439676869508</v>
       </c>
       <c r="S13">
-        <v>0.0001201907574942538</v>
+        <v>0.0001337195647111277</v>
       </c>
       <c r="T13">
-        <v>0.0001201907574942538</v>
+        <v>0.0001337195647111277</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H14">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I14">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J14">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N14">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O14">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P14">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q14">
-        <v>1621.697786909536</v>
+        <v>3421.113639548792</v>
       </c>
       <c r="R14">
-        <v>14595.28008218583</v>
+        <v>30790.02275593913</v>
       </c>
       <c r="S14">
-        <v>0.1263169225035236</v>
+        <v>0.1195489857808505</v>
       </c>
       <c r="T14">
-        <v>0.1263169225035236</v>
+        <v>0.1195489857808505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H15">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I15">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J15">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>286.19445</v>
       </c>
       <c r="O15">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P15">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q15">
-        <v>8698.494454032632</v>
+        <v>20287.55918114255</v>
       </c>
       <c r="R15">
-        <v>78286.45008629371</v>
+        <v>182588.032630283</v>
       </c>
       <c r="S15">
-        <v>0.6775411909152852</v>
+        <v>0.7089379014005659</v>
       </c>
       <c r="T15">
-        <v>0.6775411909152853</v>
+        <v>0.708937901400566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H16">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I16">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J16">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N16">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O16">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P16">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q16">
-        <v>26.53426587503556</v>
+        <v>110.6041473785123</v>
       </c>
       <c r="R16">
-        <v>238.80839287532</v>
+        <v>995.4373264066111</v>
       </c>
       <c r="S16">
-        <v>0.002066801122428693</v>
+        <v>0.003865002755068019</v>
       </c>
       <c r="T16">
-        <v>0.002066801122428693</v>
+        <v>0.003865002755068019</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H17">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I17">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J17">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N17">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O17">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P17">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q17">
-        <v>850.9331659844172</v>
+        <v>3009.603215152153</v>
       </c>
       <c r="R17">
-        <v>7658.398493859755</v>
+        <v>27086.42893636938</v>
       </c>
       <c r="S17">
-        <v>0.06628069647191767</v>
+        <v>0.1051689741652895</v>
       </c>
       <c r="T17">
-        <v>0.06628069647191767</v>
+        <v>0.1051689741652895</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H18">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I18">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J18">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N18">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O18">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P18">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q18">
-        <v>52.99072400152</v>
+        <v>169.030331840887</v>
       </c>
       <c r="R18">
-        <v>476.91651601368</v>
+        <v>1521.272986567983</v>
       </c>
       <c r="S18">
-        <v>0.004127541661052412</v>
+        <v>0.005906674512116987</v>
       </c>
       <c r="T18">
-        <v>0.004127541661052413</v>
+        <v>0.005906674512116987</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H19">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I19">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J19">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N19">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O19">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P19">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q19">
-        <v>20.57768760597489</v>
+        <v>88.10642416970533</v>
       </c>
       <c r="R19">
-        <v>185.199188453774</v>
+        <v>792.957817527348</v>
       </c>
       <c r="S19">
-        <v>0.001602832655755881</v>
+        <v>0.003078831854195546</v>
       </c>
       <c r="T19">
-        <v>0.001602832655755881</v>
+        <v>0.003078831854195546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H20">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I20">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J20">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N20">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O20">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P20">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q20">
-        <v>103.179639239936</v>
+        <v>43.90839330303199</v>
       </c>
       <c r="R20">
-        <v>928.616753159424</v>
+        <v>395.175539727288</v>
       </c>
       <c r="S20">
-        <v>0.00803684545851795</v>
+        <v>0.001534355312247527</v>
       </c>
       <c r="T20">
-        <v>0.00803684545851795</v>
+        <v>0.001534355312247527</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H21">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I21">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J21">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>286.19445</v>
       </c>
       <c r="O21">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P21">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q21">
-        <v>553.4369763234666</v>
+        <v>260.38133237855</v>
       </c>
       <c r="R21">
-        <v>4980.9327869112</v>
+        <v>2343.43199140695</v>
       </c>
       <c r="S21">
-        <v>0.04310818958571809</v>
+        <v>0.009098886351588033</v>
       </c>
       <c r="T21">
-        <v>0.04310818958571809</v>
+        <v>0.009098886351588033</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H22">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I22">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J22">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N22">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O22">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P22">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q22">
-        <v>1.688228227591111</v>
+        <v>1.419552495392333</v>
       </c>
       <c r="R22">
-        <v>15.19405404832</v>
+        <v>12.775972458531</v>
       </c>
       <c r="S22">
-        <v>0.0001314990967578987</v>
+        <v>4.960550246708882E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001314990967578987</v>
+        <v>4.960550246708882E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H23">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I23">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J23">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N23">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O23">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P23">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q23">
-        <v>54.14015964767822</v>
+        <v>38.62684949407266</v>
       </c>
       <c r="R23">
-        <v>487.261436829104</v>
+        <v>347.641645446654</v>
       </c>
       <c r="S23">
-        <v>0.004217073246166832</v>
+        <v>0.001349794589557972</v>
       </c>
       <c r="T23">
-        <v>0.004217073246166832</v>
+        <v>0.001349794589557972</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H24">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I24">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J24">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N24">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O24">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P24">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q24">
-        <v>3.37150597952</v>
+        <v>2.169425243527</v>
       </c>
       <c r="R24">
-        <v>30.34355381568</v>
+        <v>19.524827191743</v>
       </c>
       <c r="S24">
-        <v>0.0002626125921690926</v>
+        <v>7.58094044561563E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002626125921690926</v>
+        <v>7.58094044561563E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H25">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I25">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J25">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N25">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O25">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P25">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q25">
-        <v>1.309244176513777</v>
+        <v>1.130804741545333</v>
       </c>
       <c r="R25">
-        <v>11.783197588624</v>
+        <v>10.177242673908</v>
       </c>
       <c r="S25">
-        <v>0.0001019793555358079</v>
+        <v>3.95153666937971E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001019793555358079</v>
+        <v>3.95153666937971E-05</v>
       </c>
     </row>
   </sheetData>
